--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_6_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2097396.660699694</v>
+        <v>-2099713.848830826</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5928712.690912373</v>
+        <v>5928712.690912371</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15938144.96298112</v>
+        <v>15938144.96298111</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>347.4467169377323</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.0204687437853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.83094574014091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>67.25025504144588</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>70.9043534763873</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>169.2848496391964</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1029,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>97.39479945818825</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>248.7811571943789</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>391.2446175180106</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>86.4555139881777</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>118.3167770327489</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>412.026452800711</v>
       </c>
       <c r="H11" t="n">
-        <v>227.8807451060341</v>
+        <v>305.9215512841719</v>
       </c>
       <c r="I11" t="n">
         <v>84.16692311757268</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.3617316563073</v>
+        <v>56.32092547816934</v>
       </c>
       <c r="T11" t="n">
         <v>208.7539132267401</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5213508256977</v>
       </c>
       <c r="H13" t="n">
-        <v>65.31689454478393</v>
+        <v>149.1608388252544</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>111.2135484404742</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4049807887626</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.6662675155749</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2388678001585</v>
+        <v>94.9695928731259</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0134456299282</v>
+        <v>411.0134456299283</v>
       </c>
       <c r="H14" t="n">
         <v>295.5470915963932</v>
       </c>
       <c r="I14" t="n">
-        <v>45.11296416597119</v>
+        <v>45.11296416597153</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.2778307520957</v>
+        <v>111.2778307520958</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3194743366386</v>
+        <v>204.3194743366387</v>
       </c>
       <c r="U14" t="n">
         <v>251.0025095570199</v>
@@ -1701,10 +1701,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H15" t="n">
-        <v>90.07083190732376</v>
+        <v>90.07083190732382</v>
       </c>
       <c r="I15" t="n">
-        <v>10.38109843542706</v>
+        <v>10.38109843542721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0669506829019</v>
       </c>
       <c r="H16" t="n">
         <v>145.120808464761</v>
       </c>
       <c r="I16" t="n">
-        <v>97.58968530232904</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.78206565622031</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.486025572949</v>
       </c>
       <c r="T16" t="n">
-        <v>208.9765301215345</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2140823378242</v>
+        <v>42.25380138325269</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0669506829019</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.486025572949</v>
+        <v>133.4734151940328</v>
       </c>
       <c r="T19" t="n">
         <v>219.7247396327202</v>
@@ -2059,13 +2059,13 @@
         <v>286.2140823378242</v>
       </c>
       <c r="V19" t="n">
-        <v>113.4054113832347</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>77.168655768428</v>
+        <v>105.3139898295091</v>
       </c>
       <c r="G22" t="n">
         <v>166.0669506829019</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.78206565622048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.486025572949</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7247396327202</v>
       </c>
       <c r="U22" t="n">
         <v>286.2140823378242</v>
@@ -2336,7 +2336,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I23" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H24" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I24" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>119.1157539338666</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.78206565622048</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.486025572949</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>179.6176814392989</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I26" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H27" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I27" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.8193698030216</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.486025572949</v>
       </c>
       <c r="T28" t="n">
         <v>219.7247396327202</v>
       </c>
       <c r="U28" t="n">
-        <v>212.7233090875564</v>
+        <v>286.2140823378242</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I29" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H30" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I30" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.82804953356978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0669506829019</v>
       </c>
       <c r="H31" t="n">
-        <v>145.120808464761</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>219.7247396327202</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2140823378242</v>
+        <v>182.4106985139693</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I32" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H33" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I33" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>130.995975296553</v>
       </c>
       <c r="C34" t="n">
-        <v>118.4108162132435</v>
+        <v>118.4108162132436</v>
       </c>
       <c r="D34" t="n">
-        <v>99.77946813282807</v>
+        <v>99.7794681328281</v>
       </c>
       <c r="E34" t="n">
-        <v>97.59795776118489</v>
+        <v>97.59795776118492</v>
       </c>
       <c r="F34" t="n">
-        <v>96.58504313754696</v>
+        <v>96.58504313754699</v>
       </c>
       <c r="G34" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H34" t="n">
-        <v>96.28480357937673</v>
+        <v>96.28480357937676</v>
       </c>
       <c r="I34" t="n">
-        <v>48.75368041694487</v>
+        <v>48.75368041694488</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9460607708362</v>
+        <v>41.94606077083619</v>
       </c>
       <c r="S34" t="n">
         <v>141.6500206875647</v>
       </c>
       <c r="T34" t="n">
-        <v>170.8887347473359</v>
+        <v>170.888734747336</v>
       </c>
       <c r="U34" t="n">
         <v>237.3780774524399</v>
@@ -3284,7 +3284,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I35" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597148</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.2778307520966</v>
+        <v>111.2778307520958</v>
       </c>
       <c r="T35" t="n">
         <v>204.3194743366387</v>
@@ -3360,10 +3360,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H36" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I36" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>130.995975296553</v>
       </c>
       <c r="C37" t="n">
-        <v>118.4108162132435</v>
+        <v>118.4108162132436</v>
       </c>
       <c r="D37" t="n">
-        <v>99.77946813282807</v>
+        <v>99.7794681328281</v>
       </c>
       <c r="E37" t="n">
-        <v>97.59795776118489</v>
+        <v>97.59795776118492</v>
       </c>
       <c r="F37" t="n">
-        <v>96.58504313754696</v>
+        <v>96.58504313754699</v>
       </c>
       <c r="G37" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H37" t="n">
-        <v>96.28480357937673</v>
+        <v>96.28480357937676</v>
       </c>
       <c r="I37" t="n">
-        <v>48.75368041694486</v>
+        <v>48.75368041694488</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9460607708362</v>
+        <v>41.94606077083619</v>
       </c>
       <c r="S37" t="n">
         <v>141.6500206875647</v>
       </c>
       <c r="T37" t="n">
-        <v>170.8887347473359</v>
+        <v>170.888734747336</v>
       </c>
       <c r="U37" t="n">
         <v>237.3780774524399</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.0134456299283</v>
@@ -3521,7 +3521,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I38" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597235</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H39" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I39" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>96.28480357937676</v>
       </c>
       <c r="I40" t="n">
-        <v>48.75368041694488</v>
+        <v>48.75368041694489</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.94606077083622</v>
+        <v>41.9460607708362</v>
       </c>
       <c r="S40" t="n">
         <v>141.6500206875647</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>295.5470915963932</v>
       </c>
       <c r="I41" t="n">
-        <v>45.11296416597153</v>
+        <v>45.11296416597235</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>135.0485436795361</v>
       </c>
       <c r="H42" t="n">
-        <v>90.07083190732382</v>
+        <v>90.07083190732381</v>
       </c>
       <c r="I42" t="n">
-        <v>10.38109843542721</v>
+        <v>10.38109843542719</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>130.995975296553</v>
       </c>
       <c r="C43" t="n">
-        <v>118.4108162132435</v>
+        <v>118.4108162132436</v>
       </c>
       <c r="D43" t="n">
-        <v>99.77946813282804</v>
+        <v>99.7794681328281</v>
       </c>
       <c r="E43" t="n">
-        <v>97.59795776118486</v>
+        <v>97.59795776118492</v>
       </c>
       <c r="F43" t="n">
-        <v>96.58504313754693</v>
+        <v>96.58504313754699</v>
       </c>
       <c r="G43" t="n">
         <v>117.2309457975176</v>
       </c>
       <c r="H43" t="n">
-        <v>96.2848035793767</v>
+        <v>96.28480357937676</v>
       </c>
       <c r="I43" t="n">
-        <v>48.75368041694483</v>
+        <v>48.7536804169449</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.94606077083617</v>
+        <v>41.9460607708362</v>
       </c>
       <c r="S43" t="n">
-        <v>141.6500206875646</v>
+        <v>141.6500206875647</v>
       </c>
       <c r="T43" t="n">
-        <v>170.8887347473359</v>
+        <v>170.888734747336</v>
       </c>
       <c r="U43" t="n">
-        <v>237.3780774524398</v>
+        <v>237.3780774524399</v>
       </c>
       <c r="V43" t="n">
         <v>203.3016384384437</v>
@@ -3961,7 +3961,7 @@
         <v>237.6869934512067</v>
       </c>
       <c r="X43" t="n">
-        <v>176.8736505036528</v>
+        <v>176.8736505036529</v>
       </c>
       <c r="Y43" t="n">
         <v>169.7486484667105</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0134456299283</v>
+        <v>411.0134456299292</v>
       </c>
       <c r="H44" t="n">
         <v>295.5470915963932</v>
@@ -4138,13 +4138,13 @@
         <v>118.4108162132435</v>
       </c>
       <c r="D46" t="n">
-        <v>99.77946813282804</v>
+        <v>99.77946813282806</v>
       </c>
       <c r="E46" t="n">
-        <v>97.59795776118486</v>
+        <v>97.59795776118487</v>
       </c>
       <c r="F46" t="n">
-        <v>96.58504313754693</v>
+        <v>96.58504313754695</v>
       </c>
       <c r="G46" t="n">
         <v>117.2309457975176</v>
@@ -4153,7 +4153,7 @@
         <v>96.2848035793767</v>
       </c>
       <c r="I46" t="n">
-        <v>48.75368041694483</v>
+        <v>48.75368041694485</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.94606077083617</v>
+        <v>41.9460607708362</v>
       </c>
       <c r="S46" t="n">
-        <v>141.6500206875646</v>
+        <v>141.6500206875647</v>
       </c>
       <c r="T46" t="n">
         <v>170.8887347473359</v>
       </c>
       <c r="U46" t="n">
-        <v>237.3780774524398</v>
+        <v>237.3780774524399</v>
       </c>
       <c r="V46" t="n">
         <v>203.3016384384437</v>
@@ -4198,7 +4198,7 @@
         <v>237.6869934512067</v>
       </c>
       <c r="X46" t="n">
-        <v>176.8736505036528</v>
+        <v>176.8736505036529</v>
       </c>
       <c r="Y46" t="n">
         <v>169.7486484667105</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>2072.529454785695</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1447.992776948344</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1089.727078341594</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>703.9388257433493</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>696.9933249941458</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>279.0295168923327</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2349.976805717043</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2349.976805717043</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1997.208150446929</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1623.742392185849</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4680,7 +4680,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>386.0450565669176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426.30362575193</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="C8" t="n">
-        <v>1057.341108811519</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="D8" t="n">
-        <v>1057.341108811519</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1340.786165930405</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>929.8002611407978</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.30362575193</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W10" t="n">
-        <v>608.6170882137585</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>323.2572191628421</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2351.097068948637</v>
+        <v>2429.926166098271</v>
       </c>
       <c r="C11" t="n">
-        <v>1982.134552008225</v>
+        <v>2060.963649157859</v>
       </c>
       <c r="D11" t="n">
-        <v>1623.868853401475</v>
+        <v>1702.697950551109</v>
       </c>
       <c r="E11" t="n">
-        <v>1238.08060080323</v>
+        <v>1316.909697952864</v>
       </c>
       <c r="F11" t="n">
-        <v>827.0946960136228</v>
+        <v>905.9237931632568</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9063598512884</v>
+        <v>489.7354570009225</v>
       </c>
       <c r="H11" t="n">
         <v>180.7237890371125</v>
@@ -5045,13 +5045,13 @@
         <v>874.7699132368482</v>
       </c>
       <c r="L11" t="n">
-        <v>1566.697841892265</v>
+        <v>1566.697841892266</v>
       </c>
       <c r="M11" t="n">
-        <v>2353.207528233165</v>
+        <v>2353.207528233166</v>
       </c>
       <c r="N11" t="n">
-        <v>3137.811766023809</v>
+        <v>3137.81176602381</v>
       </c>
       <c r="O11" t="n">
         <v>3833.503661182099</v>
@@ -5066,25 +5066,25 @@
         <v>4785.334748947911</v>
       </c>
       <c r="S11" t="n">
-        <v>4649.615828082954</v>
+        <v>4728.444925232589</v>
       </c>
       <c r="T11" t="n">
-        <v>4438.753289470085</v>
+        <v>4517.58238661972</v>
       </c>
       <c r="U11" t="n">
-        <v>4185.133541863335</v>
+        <v>4263.96263901297</v>
       </c>
       <c r="V11" t="n">
-        <v>3854.070654519765</v>
+        <v>3932.899751669399</v>
       </c>
       <c r="W11" t="n">
-        <v>3501.30199924965</v>
+        <v>3580.131096399285</v>
       </c>
       <c r="X11" t="n">
-        <v>3127.83624098857</v>
+        <v>3206.665338138205</v>
       </c>
       <c r="Y11" t="n">
-        <v>2737.696909012759</v>
+        <v>2816.526006162393</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>134.0982017024465</v>
       </c>
       <c r="K12" t="n">
-        <v>539.6908109694881</v>
+        <v>277.8702263270353</v>
       </c>
       <c r="L12" t="n">
-        <v>779.3325818022442</v>
+        <v>884.6439390102161</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.340093364236</v>
+        <v>1183.651450572208</v>
       </c>
       <c r="N12" t="n">
-        <v>1399.670088948402</v>
+        <v>1504.981446156374</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.757199631534</v>
+        <v>2134.651907357556</v>
       </c>
       <c r="P12" t="n">
-        <v>2532.793065882479</v>
+        <v>2333.409632654964</v>
       </c>
       <c r="Q12" t="n">
-        <v>2615.738145205207</v>
+        <v>2624.331226836182</v>
       </c>
       <c r="R12" t="n">
         <v>2624.331226836182</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.6833561353056</v>
+        <v>562.4906871986766</v>
       </c>
       <c r="C13" t="n">
-        <v>161.6833561353056</v>
+        <v>562.4906871986766</v>
       </c>
       <c r="D13" t="n">
-        <v>161.6833561353056</v>
+        <v>562.4906871986766</v>
       </c>
       <c r="E13" t="n">
-        <v>161.6833561353056</v>
+        <v>414.5775936162835</v>
       </c>
       <c r="F13" t="n">
-        <v>161.6833561353056</v>
+        <v>414.5775936162835</v>
       </c>
       <c r="G13" t="n">
-        <v>161.6833561353056</v>
+        <v>246.3742089438616</v>
       </c>
       <c r="H13" t="n">
         <v>95.70669497895823</v>
@@ -5224,25 +5224,25 @@
         <v>1357.801956960923</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.392885457122</v>
+        <v>1357.801956960923</v>
       </c>
       <c r="T13" t="n">
-        <v>933.4875647343193</v>
+        <v>1133.89663623812</v>
       </c>
       <c r="U13" t="n">
-        <v>644.3573952392098</v>
+        <v>1037.967754548094</v>
       </c>
       <c r="V13" t="n">
-        <v>389.672907033323</v>
+        <v>783.2832663422067</v>
       </c>
       <c r="W13" t="n">
-        <v>389.672907033323</v>
+        <v>783.2832663422067</v>
       </c>
       <c r="X13" t="n">
-        <v>161.6833561353056</v>
+        <v>783.2832663422067</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.6833561353056</v>
+        <v>562.4906871986766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2378.975230936489</v>
+        <v>2378.97523093649</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.012713996078</v>
+        <v>2010.012713996079</v>
       </c>
       <c r="D14" t="n">
         <v>1651.747015389328</v>
@@ -5264,40 +5264,40 @@
         <v>1265.958762791084</v>
       </c>
       <c r="F14" t="n">
-        <v>854.9728580014762</v>
+        <v>854.9728580014764</v>
       </c>
       <c r="G14" t="n">
-        <v>439.8077614055891</v>
+        <v>439.8077614055894</v>
       </c>
       <c r="H14" t="n">
-        <v>141.2753456516564</v>
+        <v>141.2753456516568</v>
       </c>
       <c r="I14" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J14" t="n">
-        <v>276.8790537681877</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1479737501011</v>
+        <v>599.1479737500995</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.852827812836</v>
+        <v>1449.337430217779</v>
       </c>
       <c r="M14" t="n">
-        <v>1689.776748074888</v>
+        <v>2411.943559981615</v>
       </c>
       <c r="N14" t="n">
-        <v>2653.326853846216</v>
+        <v>3375.493665752942</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.992257831263</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P14" t="n">
-        <v>4218.289792483831</v>
+        <v>4493.540888911391</v>
       </c>
       <c r="Q14" t="n">
-        <v>4666.962316639369</v>
+        <v>4732.021572313623</v>
       </c>
       <c r="R14" t="n">
         <v>4785.334748947911</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.7454135890856</v>
+        <v>962.7454135890858</v>
       </c>
       <c r="C15" t="n">
-        <v>788.2923843079586</v>
+        <v>788.2923843079589</v>
       </c>
       <c r="D15" t="n">
-        <v>639.3579746467074</v>
+        <v>639.3579746467076</v>
       </c>
       <c r="E15" t="n">
-        <v>480.1205196412519</v>
+        <v>480.1205196412521</v>
       </c>
       <c r="F15" t="n">
-        <v>333.5859616681369</v>
+        <v>333.5859616681371</v>
       </c>
       <c r="G15" t="n">
-        <v>197.1732912847671</v>
+        <v>197.1732912847673</v>
       </c>
       <c r="H15" t="n">
-        <v>106.1926529945411</v>
+        <v>106.1926529945413</v>
       </c>
       <c r="I15" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J15" t="n">
-        <v>184.79386376192</v>
+        <v>252.7486774534993</v>
       </c>
       <c r="K15" t="n">
-        <v>415.2128495323997</v>
+        <v>483.1676632239782</v>
       </c>
       <c r="L15" t="n">
-        <v>771.362152524955</v>
+        <v>839.3169662165326</v>
       </c>
       <c r="M15" t="n">
-        <v>1206.328458812158</v>
+        <v>1274.283272503735</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.170487551464</v>
+        <v>1735.170487551467</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.572452495345</v>
+        <v>2134.572452495347</v>
       </c>
       <c r="P15" t="n">
-        <v>2435.794675018757</v>
+        <v>2435.794675018758</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.234557209454</v>
@@ -5382,10 +5382,10 @@
         <v>2587.234557209454</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.875925682281</v>
+        <v>2456.875925682282</v>
       </c>
       <c r="T15" t="n">
-        <v>2264.033122603589</v>
+        <v>2264.03312260359</v>
       </c>
       <c r="U15" t="n">
         <v>2035.962014539585</v>
@@ -5394,10 +5394,10 @@
         <v>1800.809906307842</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.57254957964</v>
+        <v>1546.572549579641</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.721049374107</v>
+        <v>1338.721049374108</v>
       </c>
       <c r="Y15" t="n">
         <v>1130.960750609154</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8115797333638</v>
+        <v>1023.893628245629</v>
       </c>
       <c r="C16" t="n">
-        <v>637.8753968054569</v>
+        <v>854.9574453177216</v>
       </c>
       <c r="D16" t="n">
-        <v>487.7587573931212</v>
+        <v>704.8408059053859</v>
       </c>
       <c r="E16" t="n">
-        <v>487.7587573931212</v>
+        <v>556.9277123229928</v>
       </c>
       <c r="F16" t="n">
-        <v>340.8688098952108</v>
+        <v>410.0377648250824</v>
       </c>
       <c r="G16" t="n">
-        <v>340.8688098952108</v>
+        <v>242.2933701958885</v>
       </c>
       <c r="H16" t="n">
-        <v>194.2821346782805</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="I16" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J16" t="n">
-        <v>137.949645751706</v>
+        <v>137.9496457517058</v>
       </c>
       <c r="K16" t="n">
-        <v>337.2046271066363</v>
+        <v>337.2046271066356</v>
       </c>
       <c r="L16" t="n">
-        <v>647.7088367548668</v>
+        <v>647.7088367548654</v>
       </c>
       <c r="M16" t="n">
-        <v>985.481113020737</v>
+        <v>985.4811130207351</v>
       </c>
       <c r="N16" t="n">
-        <v>1320.656535937017</v>
+        <v>1320.656535937014</v>
       </c>
       <c r="O16" t="n">
-        <v>1614.228993199943</v>
+        <v>1614.228993199941</v>
       </c>
       <c r="P16" t="n">
-        <v>1841.910264368669</v>
+        <v>1841.910264368665</v>
       </c>
       <c r="Q16" t="n">
-        <v>1916.109894724482</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="R16" t="n">
-        <v>1824.410838506078</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="S16" t="n">
-        <v>1824.410838506078</v>
+        <v>1723.699767883116</v>
       </c>
       <c r="T16" t="n">
-        <v>1613.323434342912</v>
+        <v>1723.699767883116</v>
       </c>
       <c r="U16" t="n">
-        <v>1324.218300668342</v>
+        <v>1681.019160425285</v>
       </c>
       <c r="V16" t="n">
-        <v>1324.218300668342</v>
+        <v>1426.334672219398</v>
       </c>
       <c r="W16" t="n">
-        <v>1034.801130631381</v>
+        <v>1426.334672219398</v>
       </c>
       <c r="X16" t="n">
-        <v>806.8115797333638</v>
+        <v>1426.334672219398</v>
       </c>
       <c r="Y16" t="n">
-        <v>806.8115797333638</v>
+        <v>1205.542093075868</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>854.9728580014764</v>
       </c>
       <c r="G17" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055894</v>
       </c>
       <c r="H17" t="n">
-        <v>141.2753456516567</v>
+        <v>141.2753456516568</v>
       </c>
       <c r="I17" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J17" t="n">
-        <v>444.2847027885401</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K17" t="n">
-        <v>766.5536227704525</v>
+        <v>599.1479737500995</v>
       </c>
       <c r="L17" t="n">
-        <v>1203.258476833186</v>
+        <v>1449.337430217779</v>
       </c>
       <c r="M17" t="n">
-        <v>2165.864606597022</v>
+        <v>2411.943559981615</v>
       </c>
       <c r="N17" t="n">
-        <v>3129.414712368348</v>
+        <v>3375.493665752942</v>
       </c>
       <c r="O17" t="n">
-        <v>3617.087936903276</v>
+        <v>3863.166890287869</v>
       </c>
       <c r="P17" t="n">
-        <v>4317.385471555843</v>
+        <v>4244.883703850668</v>
       </c>
       <c r="Q17" t="n">
         <v>4666.96231663937</v>
@@ -5540,16 +5540,16 @@
         <v>4785.334748947911</v>
       </c>
       <c r="S17" t="n">
-        <v>4672.93289970337</v>
+        <v>4672.932899703369</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.549592292624</v>
+        <v>4466.549592292623</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.01170385119</v>
+        <v>4213.011703851189</v>
       </c>
       <c r="V17" t="n">
-        <v>3881.948816507619</v>
+        <v>3881.948816507618</v>
       </c>
       <c r="W17" t="n">
         <v>3529.180161237504</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.3069530286982</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="C19" t="n">
-        <v>708.3707701007913</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="D19" t="n">
-        <v>558.2541306884556</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="E19" t="n">
-        <v>410.3410371060625</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="F19" t="n">
-        <v>263.4510896081521</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="G19" t="n">
         <v>95.70669497895823</v>
@@ -5698,25 +5698,25 @@
         <v>1916.109894724479</v>
       </c>
       <c r="S19" t="n">
-        <v>1723.699767883116</v>
+        <v>1781.288263215355</v>
       </c>
       <c r="T19" t="n">
-        <v>1501.755586435924</v>
+        <v>1559.344081768163</v>
       </c>
       <c r="U19" t="n">
-        <v>1212.650452761354</v>
+        <v>1270.238948093593</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.099532172228</v>
+        <v>1015.554459887706</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.099532172228</v>
+        <v>726.1372898507453</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.099532172228</v>
+        <v>498.147738952728</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.3069530286982</v>
+        <v>277.3551598091979</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2378.975230936489</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.012713996077</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D20" t="n">
-        <v>1651.747015389327</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E20" t="n">
-        <v>1265.958762791083</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F20" t="n">
-        <v>854.9728580014757</v>
+        <v>854.9728580014764</v>
       </c>
       <c r="G20" t="n">
-        <v>439.8077614055883</v>
+        <v>439.8077614055893</v>
       </c>
       <c r="H20" t="n">
         <v>141.2753456516567</v>
@@ -5750,52 +5750,52 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J20" t="n">
-        <v>444.2847027885401</v>
+        <v>276.8790537681871</v>
       </c>
       <c r="K20" t="n">
-        <v>1087.457581215906</v>
+        <v>599.1479737500995</v>
       </c>
       <c r="L20" t="n">
-        <v>1937.647037683585</v>
+        <v>1449.337430217779</v>
       </c>
       <c r="M20" t="n">
-        <v>2883.382359456897</v>
+        <v>2411.943559981615</v>
       </c>
       <c r="N20" t="n">
-        <v>3413.959010060359</v>
+        <v>3375.493665752942</v>
       </c>
       <c r="O20" t="n">
-        <v>3901.632234595286</v>
+        <v>3863.166890287869</v>
       </c>
       <c r="P20" t="n">
-        <v>4283.349048158085</v>
+        <v>4244.883703850668</v>
       </c>
       <c r="Q20" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R20" t="n">
         <v>4785.334748947911</v>
       </c>
       <c r="S20" t="n">
-        <v>4672.932899703368</v>
+        <v>4672.93289970337</v>
       </c>
       <c r="T20" t="n">
-        <v>4466.549592292622</v>
+        <v>4466.549592292624</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.011703851187</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V20" t="n">
-        <v>3881.948816507616</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.180161237502</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X20" t="n">
-        <v>3155.714402976422</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.57507100061</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J21" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534993</v>
       </c>
       <c r="K21" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239782</v>
       </c>
       <c r="L21" t="n">
-        <v>771.362152524953</v>
+        <v>839.3169662165326</v>
       </c>
       <c r="M21" t="n">
         <v>1274.283272503735</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>639.4289597427072</v>
+        <v>519.9454965250425</v>
       </c>
       <c r="C22" t="n">
-        <v>639.4289597427072</v>
+        <v>519.9454965250425</v>
       </c>
       <c r="D22" t="n">
-        <v>489.3123203303714</v>
+        <v>369.8288571127067</v>
       </c>
       <c r="E22" t="n">
-        <v>341.3992267479783</v>
+        <v>369.8288571127067</v>
       </c>
       <c r="F22" t="n">
         <v>263.4510896081521</v>
@@ -5932,28 +5932,28 @@
         <v>1916.109894724479</v>
       </c>
       <c r="R22" t="n">
-        <v>1824.410838506074</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="S22" t="n">
-        <v>1632.000711664712</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="T22" t="n">
-        <v>1632.000711664712</v>
+        <v>1694.165713277287</v>
       </c>
       <c r="U22" t="n">
-        <v>1342.895577990142</v>
+        <v>1405.060579602717</v>
       </c>
       <c r="V22" t="n">
-        <v>1088.211089784255</v>
+        <v>1150.37609139683</v>
       </c>
       <c r="W22" t="n">
-        <v>1088.211089784255</v>
+        <v>1150.37609139683</v>
       </c>
       <c r="X22" t="n">
-        <v>860.2215388862373</v>
+        <v>922.3865404988123</v>
       </c>
       <c r="Y22" t="n">
-        <v>639.4289597427072</v>
+        <v>701.5939613552822</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1265.958762791085</v>
       </c>
       <c r="F23" t="n">
-        <v>854.9728580014776</v>
+        <v>854.9728580014771</v>
       </c>
       <c r="G23" t="n">
         <v>439.8077614055901</v>
       </c>
       <c r="H23" t="n">
-        <v>141.2753456516574</v>
+        <v>141.2753456516567</v>
       </c>
       <c r="I23" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J23" t="n">
-        <v>276.8790537681871</v>
+        <v>444.2847027885401</v>
       </c>
       <c r="K23" t="n">
-        <v>599.1479737500995</v>
+        <v>766.5536227704526</v>
       </c>
       <c r="L23" t="n">
-        <v>1035.852827812833</v>
+        <v>1203.258476833186</v>
       </c>
       <c r="M23" t="n">
-        <v>1998.458957576669</v>
+        <v>2165.864606597022</v>
       </c>
       <c r="N23" t="n">
-        <v>2718.386109520473</v>
+        <v>3129.414712368349</v>
       </c>
       <c r="O23" t="n">
-        <v>3583.051513505518</v>
+        <v>3617.087936903276</v>
       </c>
       <c r="P23" t="n">
-        <v>4283.349048158085</v>
+        <v>4218.289792483833</v>
       </c>
       <c r="Q23" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R23" t="n">
         <v>4785.334748947911</v>
@@ -6060,28 +6060,28 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H24" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I24" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J24" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K24" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L24" t="n">
-        <v>771.362152524953</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M24" t="n">
-        <v>1206.328458812155</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N24" t="n">
-        <v>1667.215673859888</v>
+        <v>1735.170487551467</v>
       </c>
       <c r="O24" t="n">
-        <v>2066.617638803767</v>
+        <v>2134.572452495347</v>
       </c>
       <c r="P24" t="n">
         <v>2435.794675018758</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>678.5730740559976</v>
+        <v>560.4576765183982</v>
       </c>
       <c r="C25" t="n">
-        <v>558.2541306884556</v>
+        <v>560.4576765183982</v>
       </c>
       <c r="D25" t="n">
-        <v>558.2541306884556</v>
+        <v>410.3410371060625</v>
       </c>
       <c r="E25" t="n">
         <v>410.3410371060625</v>
@@ -6148,49 +6148,49 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K25" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L25" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M25" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N25" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O25" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P25" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q25" t="n">
         <v>1916.109894724479</v>
       </c>
       <c r="R25" t="n">
-        <v>1824.410838506074</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="S25" t="n">
-        <v>1632.000711664712</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="T25" t="n">
-        <v>1632.000711664712</v>
+        <v>1916.109894724479</v>
       </c>
       <c r="U25" t="n">
-        <v>1342.895577990142</v>
+        <v>1627.00476104991</v>
       </c>
       <c r="V25" t="n">
-        <v>1088.211089784255</v>
+        <v>1372.320272844023</v>
       </c>
       <c r="W25" t="n">
-        <v>1088.211089784255</v>
+        <v>1190.888271390185</v>
       </c>
       <c r="X25" t="n">
-        <v>860.2215388862373</v>
+        <v>962.8987204921681</v>
       </c>
       <c r="Y25" t="n">
-        <v>860.2215388862373</v>
+        <v>742.1061413486379</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936489</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D26" t="n">
-        <v>1651.747015389329</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E26" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F26" t="n">
-        <v>854.9728580014776</v>
+        <v>854.9728580014763</v>
       </c>
       <c r="G26" t="n">
-        <v>439.8077614055901</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H26" t="n">
-        <v>141.2753456516575</v>
+        <v>141.2753456516566</v>
       </c>
       <c r="I26" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J26" t="n">
-        <v>276.8790537681871</v>
+        <v>444.2847027885401</v>
       </c>
       <c r="K26" t="n">
-        <v>920.0519321955526</v>
+        <v>1087.457581215906</v>
       </c>
       <c r="L26" t="n">
-        <v>1356.756786258286</v>
+        <v>1867.761917008848</v>
       </c>
       <c r="M26" t="n">
-        <v>2319.362916022122</v>
+        <v>2385.34964861478</v>
       </c>
       <c r="N26" t="n">
-        <v>3282.913021793448</v>
+        <v>3348.899754386106</v>
       </c>
       <c r="O26" t="n">
-        <v>3793.243354258824</v>
+        <v>3836.572978921034</v>
       </c>
       <c r="P26" t="n">
-        <v>4493.540888911391</v>
+        <v>4218.289792483833</v>
       </c>
       <c r="Q26" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R26" t="n">
         <v>4785.334748947911</v>
@@ -6257,19 +6257,19 @@
         <v>4466.549592292624</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V26" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X26" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H27" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I27" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J27" t="n">
-        <v>252.7486774534993</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K27" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L27" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M27" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N27" t="n">
         <v>1735.170487551467</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.4459189871686</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="C28" t="n">
-        <v>390.5097360592617</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="D28" t="n">
-        <v>390.5097360592617</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="E28" t="n">
-        <v>242.5966424768686</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="F28" t="n">
         <v>95.70669497895823</v>
@@ -6385,22 +6385,22 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K28" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L28" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M28" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N28" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O28" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P28" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q28" t="n">
         <v>1916.109894724479</v>
@@ -6409,25 +6409,25 @@
         <v>1916.109894724479</v>
       </c>
       <c r="S28" t="n">
-        <v>1916.109894724479</v>
+        <v>1723.699767883117</v>
       </c>
       <c r="T28" t="n">
-        <v>1694.165713277287</v>
+        <v>1501.755586435924</v>
       </c>
       <c r="U28" t="n">
-        <v>1479.293683895917</v>
+        <v>1212.650452761355</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.293683895917</v>
+        <v>957.9659645554678</v>
       </c>
       <c r="W28" t="n">
-        <v>1189.876513858956</v>
+        <v>668.5487945185073</v>
       </c>
       <c r="X28" t="n">
-        <v>961.8869629609385</v>
+        <v>440.55924362049</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.0943838174084</v>
+        <v>219.7666644769598</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1265.958762791085</v>
       </c>
       <c r="F29" t="n">
-        <v>854.9728580014776</v>
+        <v>854.9728580014771</v>
       </c>
       <c r="G29" t="n">
         <v>439.8077614055901</v>
       </c>
       <c r="H29" t="n">
-        <v>141.2753456516575</v>
+        <v>141.2753456516567</v>
       </c>
       <c r="I29" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J29" t="n">
-        <v>276.8790537681871</v>
+        <v>444.2847027885401</v>
       </c>
       <c r="K29" t="n">
-        <v>599.1479737500995</v>
+        <v>1087.457581215906</v>
       </c>
       <c r="L29" t="n">
-        <v>1449.337430217779</v>
+        <v>1605.162471636826</v>
       </c>
       <c r="M29" t="n">
-        <v>1966.925161823711</v>
+        <v>2122.750203242758</v>
       </c>
       <c r="N29" t="n">
-        <v>2930.475267595037</v>
+        <v>2653.326853846221</v>
       </c>
       <c r="O29" t="n">
-        <v>3793.243354258824</v>
+        <v>3517.992257831266</v>
       </c>
       <c r="P29" t="n">
-        <v>4493.540888911391</v>
+        <v>4218.289792483833</v>
       </c>
       <c r="Q29" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R29" t="n">
         <v>4785.334748947911</v>
@@ -6534,22 +6534,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H30" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I30" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J30" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K30" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L30" t="n">
-        <v>771.362152524953</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M30" t="n">
-        <v>1206.328458812155</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N30" t="n">
         <v>1735.170487551467</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.5848178941538</v>
+        <v>432.387272536059</v>
       </c>
       <c r="C31" t="n">
-        <v>687.2130506885278</v>
+        <v>263.4510896081521</v>
       </c>
       <c r="D31" t="n">
-        <v>537.096411276192</v>
+        <v>263.4510896081521</v>
       </c>
       <c r="E31" t="n">
-        <v>389.1833176937989</v>
+        <v>263.4510896081521</v>
       </c>
       <c r="F31" t="n">
-        <v>242.2933701958885</v>
+        <v>263.4510896081521</v>
       </c>
       <c r="G31" t="n">
-        <v>242.2933701958885</v>
+        <v>95.70669497895823</v>
       </c>
       <c r="H31" t="n">
         <v>95.70669497895823</v>
@@ -6622,22 +6622,22 @@
         <v>137.9496457517058</v>
       </c>
       <c r="K31" t="n">
-        <v>337.2046271066356</v>
+        <v>337.2046271066357</v>
       </c>
       <c r="L31" t="n">
-        <v>647.7088367548654</v>
+        <v>647.7088367548656</v>
       </c>
       <c r="M31" t="n">
-        <v>985.4811130207351</v>
+        <v>985.4811130207354</v>
       </c>
       <c r="N31" t="n">
-        <v>1320.656535937014</v>
+        <v>1320.656535937015</v>
       </c>
       <c r="O31" t="n">
         <v>1614.228993199941</v>
       </c>
       <c r="P31" t="n">
-        <v>1841.910264368665</v>
+        <v>1841.910264368666</v>
       </c>
       <c r="Q31" t="n">
         <v>1916.109894724479</v>
@@ -6646,25 +6646,25 @@
         <v>1916.109894724479</v>
       </c>
       <c r="S31" t="n">
-        <v>1723.699767883116</v>
+        <v>1723.699767883117</v>
       </c>
       <c r="T31" t="n">
         <v>1501.755586435924</v>
       </c>
       <c r="U31" t="n">
-        <v>1212.650452761354</v>
+        <v>1317.502355613733</v>
       </c>
       <c r="V31" t="n">
-        <v>1212.650452761354</v>
+        <v>1062.817867407846</v>
       </c>
       <c r="W31" t="n">
-        <v>923.2332827243936</v>
+        <v>1062.817867407846</v>
       </c>
       <c r="X31" t="n">
-        <v>923.2332827243936</v>
+        <v>834.8283165098288</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.2332827243936</v>
+        <v>614.0357373662987</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936489</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.012713996078</v>
       </c>
       <c r="D32" t="n">
-        <v>1651.747015389329</v>
+        <v>1651.747015389328</v>
       </c>
       <c r="E32" t="n">
-        <v>1265.958762791085</v>
+        <v>1265.958762791084</v>
       </c>
       <c r="F32" t="n">
-        <v>854.9728580014776</v>
+        <v>854.9728580014763</v>
       </c>
       <c r="G32" t="n">
-        <v>439.8077614055901</v>
+        <v>439.8077614055892</v>
       </c>
       <c r="H32" t="n">
-        <v>141.2753456516575</v>
+        <v>141.2753456516566</v>
       </c>
       <c r="I32" t="n">
-        <v>95.70669497895823</v>
+        <v>95.70669497895821</v>
       </c>
       <c r="J32" t="n">
         <v>444.2847027885401</v>
       </c>
       <c r="K32" t="n">
-        <v>766.5536227704525</v>
+        <v>1087.457581215906</v>
       </c>
       <c r="L32" t="n">
-        <v>1321.002435828384</v>
+        <v>1524.16243527864</v>
       </c>
       <c r="M32" t="n">
-        <v>2283.60856559222</v>
+        <v>2041.750166884572</v>
       </c>
       <c r="N32" t="n">
-        <v>3247.158671363546</v>
+        <v>2971.907574935987</v>
       </c>
       <c r="O32" t="n">
-        <v>4111.824075348592</v>
+        <v>3836.572978921033</v>
       </c>
       <c r="P32" t="n">
-        <v>4493.540888911391</v>
+        <v>4218.289792483832</v>
       </c>
       <c r="Q32" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.962316639369</v>
       </c>
       <c r="R32" t="n">
-        <v>4785.334748947911</v>
+        <v>4785.33474894791</v>
       </c>
       <c r="S32" t="n">
-        <v>4672.93289970337</v>
+        <v>4672.932899703368</v>
       </c>
       <c r="T32" t="n">
-        <v>4466.549592292624</v>
+        <v>4466.549592292623</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.011703851188</v>
       </c>
       <c r="V32" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507617</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237503</v>
       </c>
       <c r="X32" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976423</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000611</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H33" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I33" t="n">
-        <v>95.70669497895823</v>
+        <v>95.70669497895821</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K33" t="n">
-        <v>483.1676632239782</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L33" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M33" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N33" t="n">
         <v>1735.170487551467</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>777.1639828967791</v>
+        <v>777.1639828967794</v>
       </c>
       <c r="C34" t="n">
-        <v>657.5570978328967</v>
+        <v>657.5570978328971</v>
       </c>
       <c r="D34" t="n">
-        <v>556.7697562845856</v>
+        <v>556.7697562845858</v>
       </c>
       <c r="E34" t="n">
         <v>458.185960566217</v>
@@ -6847,22 +6847,22 @@
         <v>360.6253109323312</v>
       </c>
       <c r="G34" t="n">
-        <v>242.2102141671619</v>
+        <v>242.2102141671618</v>
       </c>
       <c r="H34" t="n">
         <v>144.9528368142561</v>
       </c>
       <c r="I34" t="n">
-        <v>95.70669497895823</v>
+        <v>95.70669497895821</v>
       </c>
       <c r="J34" t="n">
-        <v>186.2972905882363</v>
+        <v>186.2972905882361</v>
       </c>
       <c r="K34" t="n">
-        <v>433.8999167796965</v>
+        <v>433.8999167796964</v>
       </c>
       <c r="L34" t="n">
-        <v>792.7517712644568</v>
+        <v>792.7517712644567</v>
       </c>
       <c r="M34" t="n">
         <v>1178.871692366857</v>
@@ -6871,25 +6871,25 @@
         <v>1562.394760119666</v>
       </c>
       <c r="O34" t="n">
-        <v>1904.314862219123</v>
+        <v>1904.314862219124</v>
       </c>
       <c r="P34" t="n">
-        <v>2180.343778224378</v>
+        <v>2180.343778224379</v>
       </c>
       <c r="Q34" t="n">
-        <v>2302.891053416722</v>
+        <v>2302.891053416723</v>
       </c>
       <c r="R34" t="n">
-        <v>2260.521295062342</v>
+        <v>2260.521295062343</v>
       </c>
       <c r="S34" t="n">
-        <v>2117.440466085004</v>
+        <v>2117.440466085005</v>
       </c>
       <c r="T34" t="n">
-        <v>1944.825582501836</v>
+        <v>1944.825582501837</v>
       </c>
       <c r="U34" t="n">
-        <v>1705.049746691291</v>
+        <v>1705.049746691292</v>
       </c>
       <c r="V34" t="n">
         <v>1499.694556349429</v>
@@ -6901,7 +6901,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.4831498629942</v>
+        <v>909.4831498629947</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2010.012713996079</v>
       </c>
       <c r="D35" t="n">
-        <v>1651.747015389328</v>
+        <v>1651.747015389329</v>
       </c>
       <c r="E35" t="n">
-        <v>1265.958762791084</v>
+        <v>1265.958762791085</v>
       </c>
       <c r="F35" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014771</v>
       </c>
       <c r="G35" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055901</v>
       </c>
       <c r="H35" t="n">
         <v>141.2753456516567</v>
@@ -6935,37 +6935,37 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J35" t="n">
-        <v>276.8790537681871</v>
+        <v>444.2847027885401</v>
       </c>
       <c r="K35" t="n">
-        <v>920.0519321955526</v>
+        <v>1087.457581215906</v>
       </c>
       <c r="L35" t="n">
-        <v>1356.756786258286</v>
+        <v>1549.18119591908</v>
       </c>
       <c r="M35" t="n">
-        <v>2319.362916022122</v>
+        <v>2066.768927525012</v>
       </c>
       <c r="N35" t="n">
-        <v>3095.378288970591</v>
+        <v>3030.319033296339</v>
       </c>
       <c r="O35" t="n">
-        <v>3583.051513505518</v>
+        <v>3517.992257831266</v>
       </c>
       <c r="P35" t="n">
-        <v>4283.349048158085</v>
+        <v>4218.289792483833</v>
       </c>
       <c r="Q35" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R35" t="n">
         <v>4785.334748947911</v>
       </c>
       <c r="S35" t="n">
-        <v>4672.932899703369</v>
+        <v>4672.93289970337</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.549592292623</v>
+        <v>4466.549592292624</v>
       </c>
       <c r="U35" t="n">
         <v>4213.011703851189</v>
@@ -7008,7 +7008,7 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H36" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I36" t="n">
         <v>95.70669497895823</v>
@@ -7017,22 +7017,22 @@
         <v>184.7938637619196</v>
       </c>
       <c r="K36" t="n">
-        <v>415.2128495323985</v>
+        <v>415.2128495323986</v>
       </c>
       <c r="L36" t="n">
-        <v>839.3169662165326</v>
+        <v>771.3621525249532</v>
       </c>
       <c r="M36" t="n">
-        <v>1274.283272503735</v>
+        <v>1206.328458812155</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.170487551467</v>
+        <v>1667.215673859888</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.572452495347</v>
+        <v>2066.617638803767</v>
       </c>
       <c r="P36" t="n">
-        <v>2435.794675018758</v>
+        <v>2367.839861327179</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.234557209454</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>777.1639828967794</v>
+        <v>777.1639828967791</v>
       </c>
       <c r="C37" t="n">
-        <v>657.5570978328969</v>
+        <v>657.5570978328967</v>
       </c>
       <c r="D37" t="n">
-        <v>556.7697562845858</v>
+        <v>556.7697562845855</v>
       </c>
       <c r="E37" t="n">
-        <v>458.1859605662173</v>
+        <v>458.1859605662169</v>
       </c>
       <c r="F37" t="n">
-        <v>360.6253109323314</v>
+        <v>360.6253109323311</v>
       </c>
       <c r="G37" t="n">
-        <v>242.2102141671621</v>
+        <v>242.2102141671617</v>
       </c>
       <c r="H37" t="n">
         <v>144.9528368142561</v>
@@ -7093,7 +7093,7 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J37" t="n">
-        <v>186.2972905882363</v>
+        <v>186.2972905882362</v>
       </c>
       <c r="K37" t="n">
         <v>433.8999167796965</v>
@@ -7108,7 +7108,7 @@
         <v>1562.394760119666</v>
       </c>
       <c r="O37" t="n">
-        <v>1904.314862219124</v>
+        <v>1904.314862219123</v>
       </c>
       <c r="P37" t="n">
         <v>2180.343778224379</v>
@@ -7120,10 +7120,10 @@
         <v>2260.521295062343</v>
       </c>
       <c r="S37" t="n">
-        <v>2117.440466085004</v>
+        <v>2117.440466085005</v>
       </c>
       <c r="T37" t="n">
-        <v>1944.825582501836</v>
+        <v>1944.825582501837</v>
       </c>
       <c r="U37" t="n">
         <v>1705.049746691291</v>
@@ -7138,7 +7138,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.4831498629947</v>
+        <v>909.4831498629943</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1265.958762791085</v>
       </c>
       <c r="F38" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014773</v>
       </c>
       <c r="G38" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055902</v>
       </c>
       <c r="H38" t="n">
-        <v>141.2753456516567</v>
+        <v>141.2753456516576</v>
       </c>
       <c r="I38" t="n">
         <v>95.70669497895823</v>
@@ -7181,19 +7181,19 @@
         <v>1937.647037683585</v>
       </c>
       <c r="M38" t="n">
-        <v>2900.253167447421</v>
+        <v>2455.234769289517</v>
       </c>
       <c r="N38" t="n">
-        <v>3624.150850813664</v>
+        <v>2985.81141989298</v>
       </c>
       <c r="O38" t="n">
-        <v>4111.824075348592</v>
+        <v>3517.992257831266</v>
       </c>
       <c r="P38" t="n">
-        <v>4493.540888911391</v>
+        <v>4218.289792483833</v>
       </c>
       <c r="Q38" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R38" t="n">
         <v>4785.334748947911</v>
@@ -7245,22 +7245,22 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H39" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I39" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J39" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K39" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L39" t="n">
-        <v>839.3169662165326</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M39" t="n">
-        <v>1274.283272503735</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N39" t="n">
         <v>1735.170487551467</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>777.1639828967794</v>
+        <v>777.1639828967792</v>
       </c>
       <c r="C40" t="n">
-        <v>657.5570978328969</v>
+        <v>657.5570978328968</v>
       </c>
       <c r="D40" t="n">
-        <v>556.7697562845857</v>
+        <v>556.7697562845856</v>
       </c>
       <c r="E40" t="n">
-        <v>458.1859605662171</v>
+        <v>458.185960566217</v>
       </c>
       <c r="F40" t="n">
         <v>360.6253109323312</v>
       </c>
       <c r="G40" t="n">
-        <v>242.2102141671619</v>
+        <v>242.2102141671618</v>
       </c>
       <c r="H40" t="n">
         <v>144.9528368142561</v>
@@ -7330,13 +7330,13 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J40" t="n">
-        <v>186.2972905882362</v>
+        <v>186.2972905882363</v>
       </c>
       <c r="K40" t="n">
-        <v>433.8999167796964</v>
+        <v>433.8999167796965</v>
       </c>
       <c r="L40" t="n">
-        <v>792.7517712644565</v>
+        <v>792.7517712644566</v>
       </c>
       <c r="M40" t="n">
         <v>1178.871692366857</v>
@@ -7348,7 +7348,7 @@
         <v>1904.314862219123</v>
       </c>
       <c r="P40" t="n">
-        <v>2180.343778224378</v>
+        <v>2180.343778224379</v>
       </c>
       <c r="Q40" t="n">
         <v>2302.891053416722</v>
@@ -7363,7 +7363,7 @@
         <v>1944.825582501836</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.049746691292</v>
+        <v>1705.049746691291</v>
       </c>
       <c r="V40" t="n">
         <v>1499.694556349429</v>
@@ -7375,7 +7375,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.4831498629947</v>
+        <v>909.4831498629944</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936491</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.01271399608</v>
       </c>
       <c r="D41" t="n">
-        <v>1651.747015389328</v>
+        <v>1651.747015389329</v>
       </c>
       <c r="E41" t="n">
-        <v>1265.958762791084</v>
+        <v>1265.958762791085</v>
       </c>
       <c r="F41" t="n">
-        <v>854.9728580014764</v>
+        <v>854.9728580014773</v>
       </c>
       <c r="G41" t="n">
-        <v>439.8077614055893</v>
+        <v>439.8077614055902</v>
       </c>
       <c r="H41" t="n">
-        <v>141.2753456516567</v>
+        <v>141.2753456516576</v>
       </c>
       <c r="I41" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J41" t="n">
-        <v>276.8790537681871</v>
+        <v>444.2847027885401</v>
       </c>
       <c r="K41" t="n">
-        <v>599.1479737500995</v>
+        <v>1087.457581215906</v>
       </c>
       <c r="L41" t="n">
-        <v>1449.337430217779</v>
+        <v>1937.647037683585</v>
       </c>
       <c r="M41" t="n">
-        <v>1966.925161823711</v>
+        <v>2455.234769289517</v>
       </c>
       <c r="N41" t="n">
-        <v>2930.475267595037</v>
+        <v>2985.81141989298</v>
       </c>
       <c r="O41" t="n">
-        <v>3583.051513505518</v>
+        <v>3517.992257831266</v>
       </c>
       <c r="P41" t="n">
-        <v>4283.349048158085</v>
+        <v>4218.289792483833</v>
       </c>
       <c r="Q41" t="n">
-        <v>4732.021572313623</v>
+        <v>4666.96231663937</v>
       </c>
       <c r="R41" t="n">
         <v>4785.334748947911</v>
@@ -7482,31 +7482,31 @@
         <v>197.1732912847673</v>
       </c>
       <c r="H42" t="n">
-        <v>106.1926529945413</v>
+        <v>106.1926529945412</v>
       </c>
       <c r="I42" t="n">
         <v>95.70669497895823</v>
       </c>
       <c r="J42" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534988</v>
       </c>
       <c r="K42" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239779</v>
       </c>
       <c r="L42" t="n">
-        <v>771.362152524953</v>
+        <v>839.3169662165324</v>
       </c>
       <c r="M42" t="n">
-        <v>1206.328458812155</v>
+        <v>1274.283272503734</v>
       </c>
       <c r="N42" t="n">
-        <v>1667.215673859888</v>
+        <v>1735.170487551467</v>
       </c>
       <c r="O42" t="n">
-        <v>2066.617638803767</v>
+        <v>2134.572452495347</v>
       </c>
       <c r="P42" t="n">
-        <v>2367.839861327178</v>
+        <v>2435.794675018758</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.234557209454</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>777.1639828967793</v>
+        <v>777.1639828967791</v>
       </c>
       <c r="C43" t="n">
-        <v>657.5570978328969</v>
+        <v>657.5570978328967</v>
       </c>
       <c r="D43" t="n">
-        <v>556.7697562845858</v>
+        <v>556.7697562845855</v>
       </c>
       <c r="E43" t="n">
-        <v>458.1859605662172</v>
+        <v>458.1859605662169</v>
       </c>
       <c r="F43" t="n">
-        <v>360.6253109323314</v>
+        <v>360.625310932331</v>
       </c>
       <c r="G43" t="n">
-        <v>242.2102141671621</v>
+        <v>242.2102141671617</v>
       </c>
       <c r="H43" t="n">
-        <v>144.952836814256</v>
+        <v>144.9528368142561</v>
       </c>
       <c r="I43" t="n">
         <v>95.70669497895823</v>
@@ -7570,19 +7570,19 @@
         <v>186.2972905882362</v>
       </c>
       <c r="K43" t="n">
-        <v>433.8999167796965</v>
+        <v>433.8999167796964</v>
       </c>
       <c r="L43" t="n">
-        <v>792.7517712644568</v>
+        <v>792.7517712644569</v>
       </c>
       <c r="M43" t="n">
         <v>1178.871692366857</v>
       </c>
       <c r="N43" t="n">
-        <v>1562.394760119666</v>
+        <v>1562.394760119667</v>
       </c>
       <c r="O43" t="n">
-        <v>1904.314862219123</v>
+        <v>1904.314862219124</v>
       </c>
       <c r="P43" t="n">
         <v>2180.343778224379</v>
@@ -7612,7 +7612,7 @@
         <v>1080.9464311425</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.4831498629944</v>
+        <v>909.4831498629943</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2378.97523093649</v>
+        <v>2378.975230936491</v>
       </c>
       <c r="C44" t="n">
-        <v>2010.012713996079</v>
+        <v>2010.01271399608</v>
       </c>
       <c r="D44" t="n">
         <v>1651.747015389329</v>
@@ -7634,10 +7634,10 @@
         <v>1265.958762791085</v>
       </c>
       <c r="F44" t="n">
-        <v>854.9728580014771</v>
+        <v>854.9728580014773</v>
       </c>
       <c r="G44" t="n">
-        <v>439.8077614055901</v>
+        <v>439.8077614055893</v>
       </c>
       <c r="H44" t="n">
         <v>141.2753456516567</v>
@@ -7652,16 +7652,16 @@
         <v>599.1479737500995</v>
       </c>
       <c r="L44" t="n">
-        <v>1447.440112896521</v>
+        <v>1321.002435828384</v>
       </c>
       <c r="M44" t="n">
-        <v>1965.027844502452</v>
+        <v>2283.60856559222</v>
       </c>
       <c r="N44" t="n">
-        <v>2928.577950273779</v>
+        <v>3247.158671363546</v>
       </c>
       <c r="O44" t="n">
-        <v>3793.243354258824</v>
+        <v>4111.824075348592</v>
       </c>
       <c r="P44" t="n">
         <v>4493.540888911391</v>
@@ -7679,19 +7679,19 @@
         <v>4466.549592292624</v>
       </c>
       <c r="U44" t="n">
-        <v>4213.011703851189</v>
+        <v>4213.01170385119</v>
       </c>
       <c r="V44" t="n">
-        <v>3881.948816507618</v>
+        <v>3881.948816507619</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.180161237504</v>
+        <v>3529.180161237505</v>
       </c>
       <c r="X44" t="n">
-        <v>3155.714402976424</v>
+        <v>3155.714402976425</v>
       </c>
       <c r="Y44" t="n">
-        <v>2765.575071000612</v>
+        <v>2765.575071000613</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>95.70669497895823</v>
       </c>
       <c r="J45" t="n">
-        <v>184.7938637619196</v>
+        <v>252.7486774534993</v>
       </c>
       <c r="K45" t="n">
-        <v>415.2128495323985</v>
+        <v>483.1676632239782</v>
       </c>
       <c r="L45" t="n">
-        <v>771.362152524953</v>
+        <v>839.3169662165326</v>
       </c>
       <c r="M45" t="n">
-        <v>1206.328458812155</v>
+        <v>1274.283272503735</v>
       </c>
       <c r="N45" t="n">
-        <v>1667.215673859888</v>
+        <v>1735.170487551467</v>
       </c>
       <c r="O45" t="n">
-        <v>2066.617638803767</v>
+        <v>2134.572452495347</v>
       </c>
       <c r="P45" t="n">
         <v>2435.794675018758</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1639828967787</v>
+        <v>777.1639828967786</v>
       </c>
       <c r="C46" t="n">
-        <v>657.5570978328964</v>
+        <v>657.5570978328963</v>
       </c>
       <c r="D46" t="n">
-        <v>556.7697562845852</v>
+        <v>556.7697562845851</v>
       </c>
       <c r="E46" t="n">
-        <v>458.1859605662167</v>
+        <v>458.1859605662165</v>
       </c>
       <c r="F46" t="n">
-        <v>360.6253109323309</v>
+        <v>360.6253109323307</v>
       </c>
       <c r="G46" t="n">
-        <v>242.2102141671618</v>
+        <v>242.2102141671614</v>
       </c>
       <c r="H46" t="n">
         <v>144.952836814256</v>
@@ -7807,10 +7807,10 @@
         <v>186.2972905882363</v>
       </c>
       <c r="K46" t="n">
-        <v>433.8999167796961</v>
+        <v>433.8999167796965</v>
       </c>
       <c r="L46" t="n">
-        <v>792.7517712644565</v>
+        <v>792.7517712644568</v>
       </c>
       <c r="M46" t="n">
         <v>1178.871692366857</v>
@@ -7822,10 +7822,10 @@
         <v>1904.314862219123</v>
       </c>
       <c r="P46" t="n">
-        <v>2180.343778224379</v>
+        <v>2180.343778224378</v>
       </c>
       <c r="Q46" t="n">
-        <v>2302.891053416723</v>
+        <v>2302.891053416722</v>
       </c>
       <c r="R46" t="n">
         <v>2260.521295062342</v>
@@ -7849,7 +7849,7 @@
         <v>1080.946431142499</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.4831498629939</v>
+        <v>909.4831498629937</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>350.8613503358865</v>
+        <v>361.5516033844224</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>36.84178937599239</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8930,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>137.7133218748678</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1688737987097</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>68.6412259510906</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>68.64122595108313</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.189834512661179</v>
+        <v>3.189834512661463</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>112.2183451326215</v>
+        <v>185.4524539257272</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>432.4723133003836</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>185.4524539257272</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>68.6412259510906</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>68.64122595109058</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>191.2631326670121</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>221.7020626441994</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>68.64122595109046</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>347.0701835658669</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>22.88596760651342</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>68.6412259510906</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>81.818218543623</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>378.8836991200601</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>68.64122595109041</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>118.9332919143412</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>403.6169267151045</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K33" t="n">
-        <v>68.64122595109058</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>25.27147539438465</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>247.9179013585926</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68.64122595109052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>68.64122595108992</v>
       </c>
       <c r="R36" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>195.2737704674554</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>44.95718525591792</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.64122595109052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>166.5687084601553</v>
+        <v>44.95718525591792</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>68.64122595109012</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.64122595109043</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.189834512661463</v>
+        <v>3.189834512661434</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>415.744732407765</v>
+        <v>288.0299070864149</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>68.6412259510906</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>68.64122595109046</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>151.6293613508856</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>22.2843837407367</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>136.6091161503317</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>219.2727432951451</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>78.04080617813773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>78.04080617813793</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5213508256977</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.84394428047042</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>111.2547368693149</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.4049807887626</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.2692749270325</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0669506829019</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.58968530232914</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.78206565622048</v>
       </c>
       <c r="S16" t="n">
-        <v>190.4860255729489</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>10.74820951118571</v>
+        <v>219.7247396327202</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>243.9602809545715</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0669506829019</v>
       </c>
       <c r="H19" t="n">
         <v>145.120808464761</v>
@@ -23938,7 +23938,7 @@
         <v>90.78206565622048</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.01261037891618</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.7322319405933</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>68.25239225450325</v>
+        <v>40.10705819342216</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.78206565622048</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.486025572949</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7247396327202</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>48.13106716476123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.486025572949</v>
       </c>
       <c r="T25" t="n">
         <v>219.7247396327202</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>106.9053168972921</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.0126103789157</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0669506829019</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.78206565622048</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S28" t="n">
-        <v>190.486025572949</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>73.49077325026775</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>113.4187715650581</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0669506829019</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.120808464761</v>
       </c>
       <c r="I31" t="n">
         <v>97.58968530232914</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.78206565622048</v>
+        <v>90.78206565622045</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>103.8033838238549</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1381949.655112599</v>
+        <v>1381949.6551126</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>59498.6058761547</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="E2" t="n">
+        <v>58134.53058339937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59482.41177433258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59482.41177433258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>59482.41177433258</v>
+      </c>
+      <c r="I2" t="n">
+        <v>59482.41177433261</v>
+      </c>
+      <c r="J2" t="n">
+        <v>59482.41177433261</v>
+      </c>
+      <c r="K2" t="n">
+        <v>59482.41177433261</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.1327398212</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982121</v>
       </c>
-      <c r="E2" t="n">
-        <v>58134.53058339936</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59482.41177433263</v>
-      </c>
-      <c r="G2" t="n">
-        <v>59482.41177433259</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59482.41177433259</v>
-      </c>
-      <c r="I2" t="n">
-        <v>59482.41177433258</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59482.41177433258</v>
-      </c>
-      <c r="K2" t="n">
-        <v>59482.41177433258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982118</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>61578.13273982119</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982118</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982119</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>507145.2021754109</v>
       </c>
       <c r="F3" t="n">
-        <v>199180.7052109534</v>
+        <v>199180.7052109518</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39068.80390830743</v>
+        <v>39068.80390830741</v>
       </c>
       <c r="M3" t="n">
-        <v>130096.0546746774</v>
+        <v>130096.0546746776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>43904.52791521023</v>
       </c>
       <c r="F4" t="n">
-        <v>23547.71004398547</v>
+        <v>23547.71004398563</v>
       </c>
       <c r="G4" t="n">
-        <v>23547.71004398559</v>
+        <v>23547.71004398563</v>
       </c>
       <c r="H4" t="n">
-        <v>23547.71004398564</v>
+        <v>23547.71004398563</v>
       </c>
       <c r="I4" t="n">
-        <v>23547.71004398564</v>
+        <v>23547.71004398563</v>
       </c>
       <c r="J4" t="n">
-        <v>23547.71004398564</v>
+        <v>23547.71004398563</v>
       </c>
       <c r="K4" t="n">
         <v>23547.71004398563</v>
       </c>
       <c r="L4" t="n">
+        <v>39617.1894193304</v>
+      </c>
+      <c r="M4" t="n">
         <v>39617.18941933042</v>
-      </c>
-      <c r="M4" t="n">
-        <v>39617.18941933038</v>
       </c>
       <c r="N4" t="n">
         <v>39617.18941933037</v>
       </c>
       <c r="O4" t="n">
+        <v>39617.18941933037</v>
+      </c>
+      <c r="P4" t="n">
         <v>39617.18941933039</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39617.18941933043</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>90503.56111915127</v>
       </c>
       <c r="F5" t="n">
-        <v>95996.84575451334</v>
+        <v>95996.84575451331</v>
       </c>
       <c r="G5" t="n">
         <v>95996.84575451331</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789709.2749070233</v>
+        <v>-789778.5924691455</v>
       </c>
       <c r="C6" t="n">
-        <v>-213487.5417160179</v>
+        <v>-213487.541716018</v>
       </c>
       <c r="D6" t="n">
         <v>-213487.541716018</v>
       </c>
       <c r="E6" t="n">
-        <v>-583418.7606263731</v>
+        <v>-583533.5473649205</v>
       </c>
       <c r="F6" t="n">
-        <v>-259242.8492351196</v>
+        <v>-259312.7066006344</v>
       </c>
       <c r="G6" t="n">
-        <v>-60062.14402416471</v>
+        <v>-60132.00138968266</v>
       </c>
       <c r="H6" t="n">
-        <v>-60062.14402416636</v>
+        <v>-60132.00138968266</v>
       </c>
       <c r="I6" t="n">
-        <v>-60062.14402416637</v>
+        <v>-60132.00138968263</v>
       </c>
       <c r="J6" t="n">
-        <v>-236485.3632167593</v>
+        <v>-236555.2205822755</v>
       </c>
       <c r="K6" t="n">
-        <v>-60062.14402416637</v>
+        <v>-60132.00138968263</v>
       </c>
       <c r="L6" t="n">
         <v>-117210.3004370393</v>
       </c>
       <c r="M6" t="n">
-        <v>-208237.5512034093</v>
+        <v>-208237.5512034095</v>
       </c>
       <c r="N6" t="n">
-        <v>-78141.49652873186</v>
+        <v>-78141.49652873185</v>
       </c>
       <c r="O6" t="n">
-        <v>-78141.49652873182</v>
+        <v>-78141.49652873185</v>
       </c>
       <c r="P6" t="n">
-        <v>-78141.49652873189</v>
+        <v>-78141.49652873188</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="M2" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="N2" t="n">
         <v>48.83600488538426</v>
       </c>
       <c r="O2" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="P2" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>814.9758227129826</v>
       </c>
       <c r="F3" t="n">
-        <v>1066.961356445188</v>
+        <v>1066.961356445186</v>
       </c>
       <c r="G3" t="n">
         <v>1066.961356445186</v>
@@ -26756,25 +26756,25 @@
         <v>1066.961356445186</v>
       </c>
       <c r="I3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="J3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="K3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="L3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="M3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="N3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="O3" t="n">
-        <v>1066.961356445186</v>
+        <v>1066.961356445187</v>
       </c>
       <c r="P3" t="n">
         <v>1066.961356445186</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>437.2321584958959</v>
       </c>
       <c r="F3" t="n">
-        <v>251.9855337322058</v>
+        <v>251.9855337322037</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.103752860397517e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0464144824218</v>
+        <v>522.0464144824224</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>197.6116073665274</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>130.2174699122683</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>112.6030169064283</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>115.5285271734963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>253.0184192879698</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.93931786909295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>121.1898538939065</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>133.1492128778829</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>22.53955250278437</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>69.71537485361745</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>168.2062213038421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="C34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="D34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="E34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="F34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="G34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="H34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="I34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="J34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="K34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="L34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="M34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="N34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="O34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="P34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="R34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="S34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="T34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="U34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="V34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="W34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="X34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="C37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="D37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="E37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="F37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="G37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="H37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="I37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="J37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="K37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="L37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="M37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="N37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="O37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="P37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="R37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="S37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="T37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="U37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="V37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="W37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="X37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.83600488538428</v>
+        <v>48.83600488538426</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.739675649849232e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.739675649849232e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="C43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="D43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="E43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="F43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="G43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="H43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="I43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="J43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="K43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="L43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="M43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="N43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="O43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="P43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="R43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="S43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="T43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="U43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="V43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="W43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="X43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.83600488538431</v>
+        <v>48.83600488538425</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="C46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="D46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="E46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="F46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="G46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="H46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="I46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="J46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="K46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="L46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="M46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="N46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="O46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="P46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="R46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="S46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="T46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="U46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="V46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="W46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="X46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.83600488538431</v>
+        <v>48.8360048853843</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.289291885206784</v>
+        <v>4.289291885206776</v>
       </c>
       <c r="H14" t="n">
-        <v>43.92771051937399</v>
+        <v>43.9277105193739</v>
       </c>
       <c r="I14" t="n">
-        <v>165.3629254044347</v>
+        <v>165.3629254044344</v>
       </c>
       <c r="J14" t="n">
-        <v>364.0482871420696</v>
+        <v>364.0482871420689</v>
       </c>
       <c r="K14" t="n">
-        <v>545.6140126428729</v>
+        <v>545.6140126428719</v>
       </c>
       <c r="L14" t="n">
-        <v>676.8824291747702</v>
+        <v>676.8824291747688</v>
       </c>
       <c r="M14" t="n">
-        <v>753.1621237383163</v>
+        <v>753.1621237383148</v>
       </c>
       <c r="N14" t="n">
-        <v>765.3490743071601</v>
+        <v>765.3490743071586</v>
       </c>
       <c r="O14" t="n">
-        <v>722.6974281236351</v>
+        <v>722.6974281236337</v>
       </c>
       <c r="P14" t="n">
-        <v>616.8055347075925</v>
+        <v>616.8055347075914</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1952690686244</v>
+        <v>463.1952690686235</v>
       </c>
       <c r="R14" t="n">
-        <v>269.4372313841209</v>
+        <v>269.4372313841204</v>
       </c>
       <c r="S14" t="n">
-        <v>97.74223883414969</v>
+        <v>97.7422388341495</v>
       </c>
       <c r="T14" t="n">
-        <v>18.77637522749271</v>
+        <v>18.77637522749267</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3431433508165427</v>
+        <v>0.343143350816542</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.294973483674556</v>
+        <v>2.294973483674552</v>
       </c>
       <c r="H15" t="n">
-        <v>22.16461232917269</v>
+        <v>22.16461232917265</v>
       </c>
       <c r="I15" t="n">
-        <v>79.01553441598801</v>
+        <v>79.01553441598787</v>
       </c>
       <c r="J15" t="n">
-        <v>216.8246658413755</v>
+        <v>216.8246658413751</v>
       </c>
       <c r="K15" t="n">
-        <v>370.5878892475708</v>
+        <v>370.58788924757</v>
       </c>
       <c r="L15" t="n">
-        <v>498.3011504794251</v>
+        <v>498.3011504794241</v>
       </c>
       <c r="M15" t="n">
-        <v>581.4939392626276</v>
+        <v>581.4939392626264</v>
       </c>
       <c r="N15" t="n">
-        <v>596.8843535456908</v>
+        <v>596.8843535456897</v>
       </c>
       <c r="O15" t="n">
-        <v>546.0325726705862</v>
+        <v>546.0325726705851</v>
       </c>
       <c r="P15" t="n">
-        <v>438.2392786501002</v>
+        <v>438.2392786500993</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.9513520564223</v>
+        <v>292.9513520564217</v>
       </c>
       <c r="R15" t="n">
-        <v>142.4896694513028</v>
+        <v>142.4896694513025</v>
       </c>
       <c r="S15" t="n">
-        <v>42.62812589193745</v>
+        <v>42.62812589193737</v>
       </c>
       <c r="T15" t="n">
-        <v>9.250353646916299</v>
+        <v>9.250353646916281</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1509850976101682</v>
+        <v>0.1509850976101679</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.924028675556897</v>
+        <v>1.924028675556893</v>
       </c>
       <c r="H16" t="n">
-        <v>17.1063640426786</v>
+        <v>17.10636404267857</v>
       </c>
       <c r="I16" t="n">
-        <v>57.86078962492924</v>
+        <v>57.86078962492913</v>
       </c>
       <c r="J16" t="n">
-        <v>136.0288273618726</v>
+        <v>136.0288273618723</v>
       </c>
       <c r="K16" t="n">
-        <v>223.5371497601558</v>
+        <v>223.5371497601554</v>
       </c>
       <c r="L16" t="n">
-        <v>286.0505905459772</v>
+        <v>286.0505905459767</v>
       </c>
       <c r="M16" t="n">
-        <v>301.6002404784325</v>
+        <v>301.6002404784318</v>
       </c>
       <c r="N16" t="n">
-        <v>294.4288608695388</v>
+        <v>294.4288608695382</v>
       </c>
       <c r="O16" t="n">
-        <v>271.9527077050786</v>
+        <v>271.9527077050781</v>
       </c>
       <c r="P16" t="n">
-        <v>232.7025227237177</v>
+        <v>232.7025227237172</v>
       </c>
       <c r="Q16" t="n">
-        <v>161.1111648232234</v>
+        <v>161.1111648232231</v>
       </c>
       <c r="R16" t="n">
-        <v>86.51132572094917</v>
+        <v>86.511325720949</v>
       </c>
       <c r="S16" t="n">
-        <v>33.53057246402336</v>
+        <v>33.5305724640233</v>
       </c>
       <c r="T16" t="n">
-        <v>8.220849795561284</v>
+        <v>8.220849795561268</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1049470186667399</v>
+        <v>0.1049470186667397</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H23" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I23" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J23" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K23" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L23" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M23" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N23" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O23" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P23" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R23" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S23" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T23" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U23" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I24" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J24" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K24" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L24" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M24" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N24" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O24" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P24" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R24" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S24" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T24" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H25" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I25" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J25" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K25" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L25" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M25" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N25" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O25" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P25" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q25" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R25" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S25" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T25" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H26" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I26" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J26" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K26" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L26" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M26" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N26" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O26" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P26" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R26" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S26" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T26" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U26" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I27" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J27" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K27" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L27" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M27" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N27" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O27" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P27" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R27" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S27" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T27" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H28" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I28" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J28" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K28" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L28" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M28" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N28" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O28" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P28" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q28" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R28" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T28" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H29" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I29" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J29" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K29" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L29" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M29" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N29" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O29" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P29" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R29" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S29" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T29" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U29" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I30" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J30" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K30" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L30" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M30" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N30" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O30" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P30" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R30" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S30" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T30" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H31" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I31" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J31" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K31" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L31" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M31" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N31" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O31" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P31" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q31" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R31" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T31" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H32" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I32" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J32" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K32" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L32" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M32" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N32" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O32" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P32" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R32" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S32" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T32" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U32" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I33" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J33" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K33" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L33" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M33" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N33" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O33" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P33" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R33" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S33" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T33" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H34" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I34" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J34" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K34" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L34" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M34" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N34" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O34" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P34" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q34" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R34" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S34" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T34" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H35" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I35" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J35" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K35" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L35" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M35" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N35" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O35" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P35" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R35" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S35" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T35" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U35" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I36" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J36" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K36" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L36" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M36" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N36" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O36" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P36" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R36" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S36" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T36" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H37" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I37" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J37" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K37" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L37" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M37" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N37" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O37" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P37" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q37" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R37" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S37" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T37" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H38" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I38" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J38" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K38" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L38" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M38" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N38" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O38" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P38" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R38" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S38" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T38" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U38" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I39" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J39" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K39" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L39" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M39" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N39" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O39" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P39" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R39" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S39" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T39" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H40" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I40" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J40" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K40" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L40" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M40" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N40" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O40" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P40" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q40" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R40" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S40" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T40" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.289291885206776</v>
+        <v>4.289291885206777</v>
       </c>
       <c r="H41" t="n">
-        <v>43.9277105193739</v>
+        <v>43.92771051937392</v>
       </c>
       <c r="I41" t="n">
         <v>165.3629254044344</v>
       </c>
       <c r="J41" t="n">
-        <v>364.0482871420689</v>
+        <v>364.048287142069</v>
       </c>
       <c r="K41" t="n">
-        <v>545.6140126428719</v>
+        <v>545.614012642872</v>
       </c>
       <c r="L41" t="n">
-        <v>676.8824291747688</v>
+        <v>676.882429174769</v>
       </c>
       <c r="M41" t="n">
-        <v>753.1621237383148</v>
+        <v>753.162123738315</v>
       </c>
       <c r="N41" t="n">
-        <v>765.3490743071586</v>
+        <v>765.3490743071588</v>
       </c>
       <c r="O41" t="n">
-        <v>722.6974281236337</v>
+        <v>722.6974281236339</v>
       </c>
       <c r="P41" t="n">
-        <v>616.8055347075914</v>
+        <v>616.8055347075915</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1952690686235</v>
+        <v>463.1952690686236</v>
       </c>
       <c r="R41" t="n">
         <v>269.4372313841204</v>
       </c>
       <c r="S41" t="n">
-        <v>97.7422388341495</v>
+        <v>97.74223883414952</v>
       </c>
       <c r="T41" t="n">
-        <v>18.77637522749267</v>
+        <v>18.77637522749268</v>
       </c>
       <c r="U41" t="n">
-        <v>0.343143350816542</v>
+        <v>0.3431433508165421</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>22.16461232917265</v>
       </c>
       <c r="I42" t="n">
-        <v>79.01553441598787</v>
+        <v>79.01553441598789</v>
       </c>
       <c r="J42" t="n">
-        <v>216.8246658413751</v>
+        <v>216.8246658413752</v>
       </c>
       <c r="K42" t="n">
-        <v>370.58788924757</v>
+        <v>370.5878892475702</v>
       </c>
       <c r="L42" t="n">
-        <v>498.3011504794241</v>
+        <v>498.3011504794242</v>
       </c>
       <c r="M42" t="n">
-        <v>581.4939392626264</v>
+        <v>581.4939392626266</v>
       </c>
       <c r="N42" t="n">
-        <v>596.8843535456897</v>
+        <v>596.8843535456898</v>
       </c>
       <c r="O42" t="n">
-        <v>546.0325726705851</v>
+        <v>546.0325726705852</v>
       </c>
       <c r="P42" t="n">
-        <v>438.2392786500993</v>
+        <v>438.2392786500994</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.9513520564217</v>
+        <v>292.9513520564218</v>
       </c>
       <c r="R42" t="n">
         <v>142.4896694513025</v>
       </c>
       <c r="S42" t="n">
-        <v>42.62812589193737</v>
+        <v>42.62812589193738</v>
       </c>
       <c r="T42" t="n">
-        <v>9.250353646916281</v>
+        <v>9.250353646916285</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1509850976101679</v>
+        <v>0.150985097610168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.924028675556893</v>
+        <v>1.924028675556894</v>
       </c>
       <c r="H43" t="n">
         <v>17.10636404267857</v>
       </c>
       <c r="I43" t="n">
-        <v>57.86078962492913</v>
+        <v>57.86078962492915</v>
       </c>
       <c r="J43" t="n">
-        <v>136.0288273618723</v>
+        <v>136.0288273618724</v>
       </c>
       <c r="K43" t="n">
         <v>223.5371497601554</v>
       </c>
       <c r="L43" t="n">
-        <v>286.0505905459767</v>
+        <v>286.0505905459768</v>
       </c>
       <c r="M43" t="n">
-        <v>301.6002404784318</v>
+        <v>301.6002404784319</v>
       </c>
       <c r="N43" t="n">
-        <v>294.4288608695382</v>
+        <v>294.4288608695383</v>
       </c>
       <c r="O43" t="n">
         <v>271.9527077050781</v>
       </c>
       <c r="P43" t="n">
-        <v>232.7025227237172</v>
+        <v>232.7025227237173</v>
       </c>
       <c r="Q43" t="n">
-        <v>161.1111648232231</v>
+        <v>161.1111648232232</v>
       </c>
       <c r="R43" t="n">
-        <v>86.511325720949</v>
+        <v>86.51132572094903</v>
       </c>
       <c r="S43" t="n">
-        <v>33.5305724640233</v>
+        <v>33.53057246402331</v>
       </c>
       <c r="T43" t="n">
-        <v>8.220849795561268</v>
+        <v>8.22084979556127</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1049470186667397</v>
+        <v>0.1049470186667398</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,10 +35489,10 @@
         <v>38.77929972069521</v>
       </c>
       <c r="K12" t="n">
-        <v>409.689504310143</v>
+        <v>145.2242672975644</v>
       </c>
       <c r="L12" t="n">
-        <v>242.0623947805617</v>
+        <v>612.9027400840209</v>
       </c>
       <c r="M12" t="n">
         <v>302.0277894565571</v>
@@ -35501,16 +35501,16 @@
         <v>324.5757531153191</v>
       </c>
       <c r="O12" t="n">
-        <v>625.3405158415474</v>
+        <v>636.0307688900833</v>
       </c>
       <c r="P12" t="n">
-        <v>519.2281477282281</v>
+        <v>200.7653790882909</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.78290840679591</v>
+        <v>293.860196142645</v>
       </c>
       <c r="R12" t="n">
-        <v>8.679880435328428</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>183.0023826153833</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K14" t="n">
-        <v>325.5241615978924</v>
+        <v>325.5241615978914</v>
       </c>
       <c r="L14" t="n">
-        <v>441.116014204783</v>
+        <v>858.777228755232</v>
       </c>
       <c r="M14" t="n">
-        <v>660.5292123859114</v>
+        <v>972.3294240038746</v>
       </c>
       <c r="N14" t="n">
-        <v>973.2829351225533</v>
+        <v>973.2829351225519</v>
       </c>
       <c r="O14" t="n">
-        <v>873.3993979646937</v>
+        <v>743.7680905006566</v>
       </c>
       <c r="P14" t="n">
-        <v>707.3712471238057</v>
+        <v>385.5725389523218</v>
       </c>
       <c r="Q14" t="n">
-        <v>453.2045698540796</v>
+        <v>240.889579194174</v>
       </c>
       <c r="R14" t="n">
-        <v>119.5681134429712</v>
+        <v>53.85169356998824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.98703917470883</v>
+        <v>158.628265125799</v>
       </c>
       <c r="K15" t="n">
-        <v>232.7464502732118</v>
+        <v>232.7464502732111</v>
       </c>
       <c r="L15" t="n">
-        <v>359.7467706995509</v>
+        <v>359.7467706995499</v>
       </c>
       <c r="M15" t="n">
-        <v>439.3599053406093</v>
+        <v>439.3599053406081</v>
       </c>
       <c r="N15" t="n">
-        <v>534.1838674134407</v>
+        <v>465.5426414623564</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4363282261418</v>
+        <v>403.4363282261406</v>
       </c>
       <c r="P15" t="n">
-        <v>304.2648712357699</v>
+        <v>304.2648712357691</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.9695779704008</v>
+        <v>152.9695779704002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.66964724519983</v>
+        <v>42.66964724519957</v>
       </c>
       <c r="K16" t="n">
-        <v>201.2676579342729</v>
+        <v>201.2676579342725</v>
       </c>
       <c r="L16" t="n">
-        <v>313.6406158062933</v>
+        <v>313.6406158062928</v>
       </c>
       <c r="M16" t="n">
-        <v>341.184117440273</v>
+        <v>341.1841174402724</v>
       </c>
       <c r="N16" t="n">
-        <v>338.5610332487673</v>
+        <v>338.5610332487668</v>
       </c>
       <c r="O16" t="n">
-        <v>296.5378356191183</v>
+        <v>296.5378356191177</v>
       </c>
       <c r="P16" t="n">
-        <v>229.9810819886112</v>
+        <v>229.9810819886107</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.94912157152906</v>
+        <v>74.94912157152875</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K17" t="n">
         <v>325.5241615978914</v>
       </c>
       <c r="L17" t="n">
-        <v>441.1160142047816</v>
+        <v>858.777228755232</v>
       </c>
       <c r="M17" t="n">
         <v>972.3294240038746</v>
@@ -35899,10 +35899,10 @@
         <v>492.5992167019469</v>
       </c>
       <c r="P17" t="n">
-        <v>707.3712471238046</v>
+        <v>385.5725389523218</v>
       </c>
       <c r="Q17" t="n">
-        <v>353.1079243267956</v>
+        <v>426.3420331199013</v>
       </c>
       <c r="R17" t="n">
         <v>119.5681134429707</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>352.0989977874564</v>
+        <v>183.0023826153827</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6695741690561</v>
+        <v>325.5241615978914</v>
       </c>
       <c r="L20" t="n">
         <v>858.777228755232</v>
       </c>
       <c r="M20" t="n">
-        <v>955.2882038114257</v>
+        <v>972.3294240038746</v>
       </c>
       <c r="N20" t="n">
-        <v>535.9360107105676</v>
+        <v>973.2829351225519</v>
       </c>
       <c r="O20" t="n">
         <v>492.5992167019469</v>
@@ -36139,10 +36139,10 @@
         <v>385.5725389523218</v>
       </c>
       <c r="Q20" t="n">
-        <v>453.2045698540787</v>
+        <v>426.3420331199013</v>
       </c>
       <c r="R20" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.98703917470843</v>
+        <v>158.628265125799</v>
       </c>
       <c r="K21" t="n">
         <v>232.7464502732111</v>
@@ -36206,7 +36206,7 @@
         <v>359.7467706995499</v>
       </c>
       <c r="M21" t="n">
-        <v>508.0011312916987</v>
+        <v>439.3599053406081</v>
       </c>
       <c r="N21" t="n">
         <v>465.5426414623564</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>183.0023826153827</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K23" t="n">
-        <v>325.5241615978914</v>
+        <v>325.5241615978915</v>
       </c>
       <c r="L23" t="n">
-        <v>441.1160142047816</v>
+        <v>441.1160142047817</v>
       </c>
       <c r="M23" t="n">
-        <v>972.3294240038746</v>
+        <v>972.3294240038748</v>
       </c>
       <c r="N23" t="n">
-        <v>727.1991433775797</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O23" t="n">
-        <v>873.3993979646923</v>
+        <v>492.5992167019472</v>
       </c>
       <c r="P23" t="n">
-        <v>707.3712471238046</v>
+        <v>607.2746015965214</v>
       </c>
       <c r="Q23" t="n">
-        <v>453.2045698540787</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R23" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.98703917470843</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K24" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L24" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M24" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N24" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P24" t="n">
-        <v>372.9060971868595</v>
+        <v>304.2648712357691</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K25" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M25" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N25" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O25" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P25" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>183.0023826153827</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K26" t="n">
-        <v>649.6695741690561</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L26" t="n">
-        <v>441.1160142047816</v>
+        <v>788.1861977706486</v>
       </c>
       <c r="M26" t="n">
-        <v>972.3294240038746</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N26" t="n">
-        <v>973.2829351225519</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O26" t="n">
-        <v>515.4851843084604</v>
+        <v>492.5992167019472</v>
       </c>
       <c r="P26" t="n">
-        <v>707.3712471238046</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.889579194174</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R26" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>158.628265125799</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K27" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L27" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M27" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N27" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O27" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P27" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K28" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L28" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M28" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N28" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O28" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P28" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>183.0023826153827</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K29" t="n">
-        <v>325.5241615978914</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L29" t="n">
-        <v>858.777228755232</v>
+        <v>522.9342327484047</v>
       </c>
       <c r="M29" t="n">
-        <v>522.8158905110421</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N29" t="n">
-        <v>973.2829351225519</v>
+        <v>535.9360107105679</v>
       </c>
       <c r="O29" t="n">
-        <v>871.482915822007</v>
+        <v>873.3993979646925</v>
       </c>
       <c r="P29" t="n">
         <v>707.3712471238046</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.889579194174</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R29" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.98703917470843</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K30" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L30" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M30" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N30" t="n">
-        <v>534.1838674134468</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O30" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P30" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.66964724519957</v>
+        <v>42.6696472451996</v>
       </c>
       <c r="K31" t="n">
-        <v>201.2676579342725</v>
+        <v>201.2676579342726</v>
       </c>
       <c r="L31" t="n">
-        <v>313.6406158062928</v>
+        <v>313.6406158062929</v>
       </c>
       <c r="M31" t="n">
-        <v>341.1841174402724</v>
+        <v>341.1841174402725</v>
       </c>
       <c r="N31" t="n">
-        <v>338.5610332487668</v>
+        <v>338.5610332487669</v>
       </c>
       <c r="O31" t="n">
-        <v>296.5378356191177</v>
+        <v>296.5378356191178</v>
       </c>
       <c r="P31" t="n">
-        <v>229.9810819886107</v>
+        <v>229.9810819886108</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.94912157152875</v>
+        <v>74.94912157152878</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>352.0989977874564</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K32" t="n">
-        <v>325.5241615978914</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L32" t="n">
-        <v>560.0493061191228</v>
+        <v>441.1160142047817</v>
       </c>
       <c r="M32" t="n">
-        <v>972.3294240038746</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N32" t="n">
-        <v>973.2829351225519</v>
+        <v>939.5529374256723</v>
       </c>
       <c r="O32" t="n">
-        <v>873.3993979646923</v>
+        <v>873.3993979646925</v>
       </c>
       <c r="P32" t="n">
-        <v>385.5725389523218</v>
+        <v>385.572538952322</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.889579194174</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R32" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.98703917470843</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K33" t="n">
-        <v>301.3876762243016</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L33" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M33" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N33" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O33" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P33" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>250.1036628196568</v>
       </c>
       <c r="L34" t="n">
-        <v>362.4766206916771</v>
+        <v>362.4766206916772</v>
       </c>
       <c r="M34" t="n">
-        <v>390.0201223256567</v>
+        <v>390.0201223256568</v>
       </c>
       <c r="N34" t="n">
-        <v>387.3970381341511</v>
+        <v>387.3970381341512</v>
       </c>
       <c r="O34" t="n">
-        <v>345.373840504502</v>
+        <v>345.3738405045021</v>
       </c>
       <c r="P34" t="n">
         <v>278.817086873995</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>183.0023826153827</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K35" t="n">
-        <v>649.6695741690561</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L35" t="n">
-        <v>441.1160142047816</v>
+        <v>466.3874895991664</v>
       </c>
       <c r="M35" t="n">
-        <v>972.3294240038746</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N35" t="n">
-        <v>783.8539120691603</v>
+        <v>973.2829351225521</v>
       </c>
       <c r="O35" t="n">
-        <v>492.5992167019469</v>
+        <v>492.5992167019472</v>
       </c>
       <c r="P35" t="n">
         <v>707.3712471238046</v>
       </c>
       <c r="Q35" t="n">
-        <v>453.2045698540787</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R35" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.98703917470843</v>
+        <v>89.98703917470846</v>
       </c>
       <c r="K36" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L36" t="n">
-        <v>428.3879966506404</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M36" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N36" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O36" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P36" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.9695779704002</v>
+        <v>221.6108039214902</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>250.1036628196568</v>
       </c>
       <c r="L37" t="n">
-        <v>362.4766206916771</v>
+        <v>362.4766206916772</v>
       </c>
       <c r="M37" t="n">
-        <v>390.0201223256567</v>
+        <v>390.0201223256568</v>
       </c>
       <c r="N37" t="n">
-        <v>387.397038134151</v>
+        <v>387.3970381341512</v>
       </c>
       <c r="O37" t="n">
-        <v>345.373840504502</v>
+        <v>345.3738405045021</v>
       </c>
       <c r="P37" t="n">
         <v>278.817086873995</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>352.0989977874564</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K38" t="n">
-        <v>649.6695741690561</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L38" t="n">
-        <v>858.777228755232</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M38" t="n">
-        <v>972.3294240038746</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N38" t="n">
-        <v>731.209781178023</v>
+        <v>535.9360107105679</v>
       </c>
       <c r="O38" t="n">
-        <v>492.5992167019469</v>
+        <v>537.5564019578651</v>
       </c>
       <c r="P38" t="n">
-        <v>385.5725389523218</v>
+        <v>707.3712471238046</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.889579194174</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R38" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.98703917470843</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K39" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L39" t="n">
-        <v>428.3879966506404</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M39" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N39" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O39" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P39" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.9695779704002</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.50565213058383</v>
+        <v>91.50565213058385</v>
       </c>
       <c r="K40" t="n">
         <v>250.1036628196568</v>
@@ -37707,10 +37707,10 @@
         <v>362.4766206916771</v>
       </c>
       <c r="M40" t="n">
-        <v>390.0201223256567</v>
+        <v>390.0201223256568</v>
       </c>
       <c r="N40" t="n">
-        <v>387.397038134151</v>
+        <v>387.3970381341511</v>
       </c>
       <c r="O40" t="n">
         <v>345.373840504502</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>183.0023826153827</v>
+        <v>352.0989977874565</v>
       </c>
       <c r="K41" t="n">
-        <v>325.5241615978914</v>
+        <v>649.6695741690562</v>
       </c>
       <c r="L41" t="n">
-        <v>858.777228755232</v>
+        <v>858.7772287552322</v>
       </c>
       <c r="M41" t="n">
-        <v>522.8158905110421</v>
+        <v>522.8158905110423</v>
       </c>
       <c r="N41" t="n">
-        <v>973.2829351225519</v>
+        <v>535.9360107105679</v>
       </c>
       <c r="O41" t="n">
-        <v>659.1679251621023</v>
+        <v>537.5564019578651</v>
       </c>
       <c r="P41" t="n">
         <v>707.3712471238046</v>
       </c>
       <c r="Q41" t="n">
-        <v>453.2045698540787</v>
+        <v>453.2045698540788</v>
       </c>
       <c r="R41" t="n">
-        <v>53.85169356998824</v>
+        <v>119.5681134429707</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.98703917470843</v>
+        <v>158.6282651257986</v>
       </c>
       <c r="K42" t="n">
-        <v>232.7464502732111</v>
+        <v>232.7464502732112</v>
       </c>
       <c r="L42" t="n">
-        <v>359.7467706995499</v>
+        <v>359.74677069955</v>
       </c>
       <c r="M42" t="n">
-        <v>439.3599053406081</v>
+        <v>439.3599053406082</v>
       </c>
       <c r="N42" t="n">
-        <v>465.5426414623564</v>
+        <v>465.5426414623565</v>
       </c>
       <c r="O42" t="n">
-        <v>403.4363282261406</v>
+        <v>403.4363282261407</v>
       </c>
       <c r="P42" t="n">
         <v>304.2648712357691</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.6108039214907</v>
+        <v>152.9695779704003</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>91.50565213058388</v>
+        <v>91.50565213058385</v>
       </c>
       <c r="K43" t="n">
         <v>250.1036628196568</v>
@@ -37956,7 +37956,7 @@
         <v>278.817086873995</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.7851264569131</v>
+        <v>123.785126456913</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>325.5241615978914</v>
       </c>
       <c r="L44" t="n">
-        <v>856.8607466125466</v>
+        <v>729.1459212911965</v>
       </c>
       <c r="M44" t="n">
-        <v>522.8158905110421</v>
+        <v>972.3294240038746</v>
       </c>
       <c r="N44" t="n">
         <v>973.2829351225519</v>
@@ -38032,7 +38032,7 @@
         <v>873.3993979646923</v>
       </c>
       <c r="P44" t="n">
-        <v>707.3712471238046</v>
+        <v>385.5725389523218</v>
       </c>
       <c r="Q44" t="n">
         <v>240.889579194174</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.98703917470843</v>
+        <v>158.628265125799</v>
       </c>
       <c r="K45" t="n">
         <v>232.7464502732111</v>
@@ -38111,7 +38111,7 @@
         <v>403.4363282261406</v>
       </c>
       <c r="P45" t="n">
-        <v>372.9060971868595</v>
+        <v>304.2648712357691</v>
       </c>
       <c r="Q45" t="n">
         <v>152.9695779704002</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.50565213058388</v>
+        <v>91.50565213058387</v>
       </c>
       <c r="K46" t="n">
         <v>250.1036628196568</v>
@@ -38181,7 +38181,7 @@
         <v>362.4766206916771</v>
       </c>
       <c r="M46" t="n">
-        <v>390.0201223256568</v>
+        <v>390.0201223256567</v>
       </c>
       <c r="N46" t="n">
         <v>387.3970381341511</v>
@@ -38193,7 +38193,7 @@
         <v>278.817086873995</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.7851264569131</v>
+        <v>123.785126456913</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
